--- a/src/main/resources/excels/room1.xlsx
+++ b/src/main/resources/excels/room1.xlsx
@@ -165,10 +165,10 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1926.72</v>
+        <v>0.17</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1952.72</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
